--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_6.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1384759.387933049</v>
+        <v>-1385195.703607496</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218615.883499685</v>
+        <v>218615.8834996851</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736555</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>159.4465355783223</v>
       </c>
       <c r="F2" t="n">
         <v>10.00967878293136</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>300.9482302141685</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>59.3874707719451</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>135.3978429075264</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
         <v>238.9027100790231</v>
@@ -804,7 +804,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>242.4203156776819</v>
       </c>
       <c r="X4" t="n">
-        <v>144.3503149004803</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>10.00967878293136</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2.75294161990603</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.65884813358809</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>156.0352438491556</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
@@ -987,13 +987,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,16 +1026,16 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>236.8503023468593</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.39375210591638</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>91.93139158138757</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>335.6176499790588</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>348.6651860631077</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,10 +1212,10 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
@@ -1263,7 +1263,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>97.1710608025503</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -1272,13 +1272,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>42.33474450167088</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>170.1779509213944</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.4461728255878</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>298.208646707806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>286.2199636654877</v>
@@ -1376,7 +1376,7 @@
         <v>277.2012677100157</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>89.99680700037757</v>
       </c>
       <c r="F11" t="n">
         <v>318.1152213678984</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>237.5986042436309</v>
+        <v>237.5986042436308</v>
       </c>
       <c r="I11" t="n">
-        <v>79.19456938825898</v>
+        <v>79.19456938825896</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.46222820091658</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>130.220899391266</v>
       </c>
       <c r="U11" t="n">
         <v>160.4420255081129</v>
@@ -1433,10 +1433,10 @@
         <v>267.015123425942</v>
       </c>
       <c r="X11" t="n">
-        <v>15.47128788475351</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>297.7119794548874</v>
+        <v>297.7119794548873</v>
       </c>
     </row>
     <row r="12">
@@ -1452,7 +1452,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>122.8847593541863</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
         <v>145.5577298436975</v>
@@ -1461,7 +1461,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>127.4412149769483</v>
+        <v>112.8757236914445</v>
       </c>
       <c r="H12" t="n">
         <v>98.93847887876893</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>76.02535242790351</v>
       </c>
       <c r="D13" t="n">
-        <v>59.64671682548193</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>59.06139100944769</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>65.88446135348595</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>50.86655653831529</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.1321061567326</v>
+        <v>56.13210615673258</v>
       </c>
       <c r="S13" t="n">
         <v>119.6782075553163</v>
       </c>
       <c r="T13" t="n">
-        <v>138.952706237445</v>
+        <v>138.9527062374449</v>
       </c>
       <c r="U13" t="n">
-        <v>192.4238797007582</v>
+        <v>192.4238797007581</v>
       </c>
       <c r="V13" t="n">
-        <v>166.2334939821287</v>
+        <v>166.2334939821286</v>
       </c>
       <c r="W13" t="n">
         <v>191.4003800527419</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>137.045482048545</v>
       </c>
       <c r="Y13" t="n">
-        <v>51.31859276783617</v>
+        <v>73.70688401811911</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>298.208646707806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>286.2199636654877</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>298.9434052799213</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>318.1152213678984</v>
+        <v>318.1152213678985</v>
       </c>
       <c r="G14" t="n">
-        <v>320.0484892653209</v>
+        <v>248.0721978840658</v>
       </c>
       <c r="H14" t="n">
-        <v>127.1726407228925</v>
+        <v>237.5986042436309</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>79.19456938825903</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>130.220899391266</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>160.4420255081129</v>
+        <v>160.442025508113</v>
       </c>
       <c r="V14" t="n">
-        <v>241.7150239479851</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>267.0151234259421</v>
       </c>
       <c r="X14" t="n">
-        <v>286.3153816586886</v>
+        <v>286.3153816586887</v>
       </c>
       <c r="Y14" t="n">
-        <v>297.7119794548874</v>
+        <v>297.7119794548875</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
-        <v>181.3723269554795</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
         <v>190.5961130869169</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.82535758250306</v>
+        <v>73.70688401811809</v>
       </c>
       <c r="C16" t="n">
-        <v>76.02535242790354</v>
+        <v>76.02535242790358</v>
       </c>
       <c r="D16" t="n">
-        <v>59.64671682548193</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>41.32259558009588</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>75.33609373079553</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.1321061567326</v>
+        <v>56.13210615673265</v>
       </c>
       <c r="S16" t="n">
-        <v>119.6782075553163</v>
+        <v>119.6782075553164</v>
       </c>
       <c r="T16" t="n">
         <v>138.952706237445</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>192.4238797007582</v>
       </c>
       <c r="V16" t="n">
         <v>166.2334939821287</v>
       </c>
       <c r="W16" t="n">
-        <v>191.4003800527419</v>
+        <v>191.400380052742</v>
       </c>
       <c r="X16" t="n">
-        <v>137.045482048545</v>
+        <v>137.0454820485451</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>19.22762047349264</v>
+        <v>19.22762047349228</v>
       </c>
       <c r="T20" t="n">
         <v>55.986291663842</v>
@@ -2178,7 +2178,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
@@ -2409,7 +2409,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>112.8757236914445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
         <v>98.93847887876893</v>
@@ -2448,7 +2448,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>186.7982527956746</v>
+        <v>172.2327615101711</v>
       </c>
       <c r="U24" t="n">
         <v>216.3098444776729</v>
@@ -2555,25 +2555,25 @@
         <v>261.4420352612603</v>
       </c>
       <c r="C26" t="n">
-        <v>249.453352218942</v>
+        <v>249.4533522189421</v>
       </c>
       <c r="D26" t="n">
-        <v>240.43465626347</v>
+        <v>240.4346562634701</v>
       </c>
       <c r="E26" t="n">
-        <v>262.1767938333755</v>
+        <v>262.1767938333757</v>
       </c>
       <c r="F26" t="n">
-        <v>281.3486099213527</v>
+        <v>281.3486099213528</v>
       </c>
       <c r="G26" t="n">
-        <v>283.2818778187752</v>
+        <v>283.2818778187753</v>
       </c>
       <c r="H26" t="n">
-        <v>200.8319927970851</v>
+        <v>200.8319927970852</v>
       </c>
       <c r="I26" t="n">
-        <v>42.42795794171329</v>
+        <v>42.42795794171337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.69561675437092</v>
+        <v>56.695616754371</v>
       </c>
       <c r="T26" t="n">
-        <v>93.45428794472028</v>
+        <v>93.45428794472036</v>
       </c>
       <c r="U26" t="n">
-        <v>123.6754140615672</v>
+        <v>123.6754140615673</v>
       </c>
       <c r="V26" t="n">
-        <v>204.9484125014394</v>
+        <v>204.9484125014395</v>
       </c>
       <c r="W26" t="n">
-        <v>230.2485119793963</v>
+        <v>230.2485119793964</v>
       </c>
       <c r="X26" t="n">
-        <v>249.5487702121429</v>
+        <v>249.548770212143</v>
       </c>
       <c r="Y26" t="n">
-        <v>260.9453680083417</v>
+        <v>260.9453680083418</v>
       </c>
     </row>
     <row r="27">
@@ -2637,13 +2637,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D27" t="n">
-        <v>137.45025063969</v>
+        <v>122.8847593541866</v>
       </c>
       <c r="E27" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>118.781368784121</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
         <v>127.4412149769483</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.05874613595736</v>
+        <v>53.05874613595745</v>
       </c>
       <c r="C28" t="n">
-        <v>39.25874098135785</v>
+        <v>39.25874098135793</v>
       </c>
       <c r="D28" t="n">
-        <v>22.88010537893624</v>
+        <v>22.88010537893632</v>
       </c>
       <c r="E28" t="n">
-        <v>21.82785523471568</v>
+        <v>21.82785523471577</v>
       </c>
       <c r="F28" t="n">
-        <v>22.29477956290199</v>
+        <v>22.29477956290208</v>
       </c>
       <c r="G28" t="n">
-        <v>38.56948228424983</v>
+        <v>38.56948228424991</v>
       </c>
       <c r="H28" t="n">
-        <v>29.11784990694025</v>
+        <v>29.11784990694034</v>
       </c>
       <c r="I28" t="n">
-        <v>14.0999450917696</v>
+        <v>14.09994509176968</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.36549471018691</v>
+        <v>19.36549471018699</v>
       </c>
       <c r="S28" t="n">
-        <v>82.91159610877065</v>
+        <v>82.91159610877074</v>
       </c>
       <c r="T28" t="n">
-        <v>102.1860947908993</v>
+        <v>102.1860947908994</v>
       </c>
       <c r="U28" t="n">
         <v>155.6572682542125</v>
@@ -2773,13 +2773,13 @@
         <v>129.466882535583</v>
       </c>
       <c r="W28" t="n">
-        <v>154.6337686061962</v>
+        <v>154.6337686061963</v>
       </c>
       <c r="X28" t="n">
-        <v>100.2788706019993</v>
+        <v>100.2788706019994</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.15373835806702</v>
+        <v>91.1537383580671</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>261.4420352612603</v>
+        <v>261.4420352612602</v>
       </c>
       <c r="C29" t="n">
         <v>249.453352218942</v>
@@ -2810,7 +2810,7 @@
         <v>200.8319927970851</v>
       </c>
       <c r="I29" t="n">
-        <v>42.42795794171329</v>
+        <v>42.42795794171326</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>56.69561675437092</v>
+        <v>56.69561675437089</v>
       </c>
       <c r="T29" t="n">
-        <v>93.45428794472028</v>
+        <v>93.45428794472025</v>
       </c>
       <c r="U29" t="n">
         <v>123.6754140615672</v>
@@ -2880,7 +2880,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
-        <v>118.781368784121</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
         <v>127.4412149769483</v>
@@ -2889,7 +2889,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133625</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.05874613595736</v>
+        <v>53.05874613595734</v>
       </c>
       <c r="C31" t="n">
-        <v>39.25874098135785</v>
+        <v>39.25874098135782</v>
       </c>
       <c r="D31" t="n">
-        <v>22.88010537893624</v>
+        <v>22.88010537893621</v>
       </c>
       <c r="E31" t="n">
-        <v>21.82785523471568</v>
+        <v>21.82785523471566</v>
       </c>
       <c r="F31" t="n">
-        <v>22.29477956290199</v>
+        <v>22.29477956290197</v>
       </c>
       <c r="G31" t="n">
-        <v>38.56948228424983</v>
+        <v>38.5694822842498</v>
       </c>
       <c r="H31" t="n">
-        <v>29.11784990694025</v>
+        <v>29.11784990694022</v>
       </c>
       <c r="I31" t="n">
-        <v>14.0999450917696</v>
+        <v>14.09994509176957</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.36549471018691</v>
+        <v>19.36549471018688</v>
       </c>
       <c r="S31" t="n">
-        <v>82.91159610877065</v>
+        <v>82.91159610877062</v>
       </c>
       <c r="T31" t="n">
         <v>102.1860947908993</v>
       </c>
       <c r="U31" t="n">
-        <v>155.6572682542125</v>
+        <v>155.6572682542124</v>
       </c>
       <c r="V31" t="n">
-        <v>129.466882535583</v>
+        <v>129.4668825355829</v>
       </c>
       <c r="W31" t="n">
         <v>154.6337686061962</v>
@@ -3016,7 +3016,7 @@
         <v>100.2788706019993</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.15373835806702</v>
+        <v>91.15373835806699</v>
       </c>
     </row>
     <row r="32">
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S33" t="n">
-        <v>136.7060008318836</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T33" t="n">
         <v>186.7982527956746</v>
@@ -3345,7 +3345,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C36" t="n">
-        <v>145.5211447459515</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D36" t="n">
         <v>137.45025063969</v>
@@ -3363,7 +3363,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133634</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C39" t="n">
-        <v>145.5211447459515</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D39" t="n">
         <v>137.45025063969</v>
@@ -3600,7 +3600,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326521</v>
       </c>
       <c r="I42" t="n">
         <v>67.69846245683961</v>
@@ -3879,7 +3879,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W42" t="n">
-        <v>224.3372187935198</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X42" t="n">
         <v>195.9378182409833</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>223.9740389803821</v>
+        <v>223.974038980382</v>
       </c>
       <c r="C44" t="n">
         <v>211.9853559380638</v>
@@ -3995,7 +3995,7 @@
         <v>163.3639965162069</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835063</v>
+        <v>4.959961660835035</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349269</v>
+        <v>19.22762047349266</v>
       </c>
       <c r="T44" t="n">
-        <v>55.98629166384205</v>
+        <v>55.98629166384202</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068901</v>
+        <v>86.20741778068898</v>
       </c>
       <c r="V44" t="n">
         <v>167.4804162205612</v>
@@ -4043,7 +4043,7 @@
         <v>212.0807739312647</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.4773717274635</v>
+        <v>223.4773717274634</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>143.2597570679445</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C45" t="n">
         <v>160.0866360314548</v>
@@ -4071,7 +4071,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326566</v>
       </c>
       <c r="I45" t="n">
         <v>67.69846245683961</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507914</v>
+        <v>15.59074985507911</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479621</v>
+        <v>1.790744700479593</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371605</v>
+        <v>1.101486003371576</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.44359982789243</v>
+        <v>45.4435998278924</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002106</v>
+        <v>64.71809851002104</v>
       </c>
       <c r="U46" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V46" t="n">
-        <v>91.99888625470473</v>
+        <v>91.9988862547047</v>
       </c>
       <c r="W46" t="n">
         <v>117.165772325318</v>
       </c>
       <c r="X46" t="n">
-        <v>62.8108743211211</v>
+        <v>62.81087432112108</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718879</v>
+        <v>53.68574207718876</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>629.2923109092278</v>
+        <v>777.4974563272974</v>
       </c>
       <c r="C2" t="n">
-        <v>629.2923109092278</v>
+        <v>395.5636976601048</v>
       </c>
       <c r="D2" t="n">
-        <v>629.2923109092278</v>
+        <v>395.5636976601048</v>
       </c>
       <c r="E2" t="n">
         <v>234.5065910153347</v>
@@ -4325,55 +4325,55 @@
         <v>212.3322218605011</v>
       </c>
       <c r="I2" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="J2" t="n">
-        <v>39.51502306929716</v>
+        <v>111.5135673421028</v>
       </c>
       <c r="K2" t="n">
-        <v>279.6553951140799</v>
+        <v>351.6539393868856</v>
       </c>
       <c r="L2" t="n">
-        <v>627.5407681990262</v>
+        <v>699.5393124718319</v>
       </c>
       <c r="M2" t="n">
-        <v>1020.779934452114</v>
+        <v>1092.77847872492</v>
       </c>
       <c r="N2" t="n">
-        <v>1348.157418849434</v>
+        <v>1471.109837412635</v>
       </c>
       <c r="O2" t="n">
-        <v>1653.162003322268</v>
+        <v>1776.114421885469</v>
       </c>
       <c r="P2" t="n">
-        <v>1881.318899778321</v>
+        <v>1881.31889977832</v>
       </c>
       <c r="Q2" t="n">
-        <v>1975.751153464858</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R2" t="n">
-        <v>1975.751153464858</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="S2" t="n">
-        <v>1975.751153464858</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="T2" t="n">
-        <v>1975.751153464858</v>
+        <v>1751.392207195869</v>
       </c>
       <c r="U2" t="n">
-        <v>1720.865817178852</v>
+        <v>1496.506870909863</v>
       </c>
       <c r="V2" t="n">
-        <v>1720.865817178852</v>
+        <v>1159.527596805804</v>
       </c>
       <c r="W2" t="n">
-        <v>1416.877705851409</v>
+        <v>1159.527596805804</v>
       </c>
       <c r="X2" t="n">
-        <v>1416.877705851409</v>
+        <v>777.4974563272974</v>
       </c>
       <c r="Y2" t="n">
-        <v>1023.335850427247</v>
+        <v>777.4974563272974</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>916.7546444479436</v>
+        <v>435.8503513317701</v>
       </c>
       <c r="C3" t="n">
-        <v>755.0509716888984</v>
+        <v>274.1466785727248</v>
       </c>
       <c r="D3" t="n">
-        <v>618.285473802508</v>
+        <v>274.1466785727248</v>
       </c>
       <c r="E3" t="n">
-        <v>471.2574638593792</v>
+        <v>274.1466785727248</v>
       </c>
       <c r="F3" t="n">
-        <v>336.5636658092535</v>
+        <v>139.4528805225991</v>
       </c>
       <c r="G3" t="n">
-        <v>207.8351658325381</v>
+        <v>139.4528805225991</v>
       </c>
       <c r="H3" t="n">
-        <v>107.8973083792362</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="I3" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="J3" t="n">
-        <v>99.76916960240331</v>
+        <v>99.7691696024033</v>
       </c>
       <c r="K3" t="n">
         <v>329.259722162592</v>
@@ -4419,22 +4419,22 @@
         <v>1180.114920842934</v>
       </c>
       <c r="N3" t="n">
-        <v>1669.113331325487</v>
+        <v>1281.455283405009</v>
       </c>
       <c r="O3" t="n">
         <v>1673.65523418916</v>
       </c>
       <c r="P3" t="n">
-        <v>1975.751153464858</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="Q3" t="n">
-        <v>1975.751153464858</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R3" t="n">
         <v>1915.966884559803</v>
       </c>
       <c r="S3" t="n">
-        <v>1763.167397572544</v>
+        <v>1763.167397572543</v>
       </c>
       <c r="T3" t="n">
         <v>1574.482293738529</v>
@@ -4443,16 +4443,16 @@
         <v>1355.987501336839</v>
       </c>
       <c r="V3" t="n">
-        <v>1355.987501336839</v>
+        <v>1127.591878785173</v>
       </c>
       <c r="W3" t="n">
-        <v>1114.671632570149</v>
+        <v>886.2760100184827</v>
       </c>
       <c r="X3" t="n">
-        <v>916.7546444479436</v>
+        <v>688.3590218962772</v>
       </c>
       <c r="Y3" t="n">
-        <v>916.7546444479436</v>
+        <v>495.837695545856</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4462,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192.5869162415344</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="C4" t="n">
-        <v>192.5869162415344</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="D4" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="E4" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="F4" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="G4" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="H4" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="I4" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="J4" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="K4" t="n">
-        <v>73.11921081394057</v>
+        <v>73.11921081394055</v>
       </c>
       <c r="L4" t="n">
-        <v>173.7262902142001</v>
+        <v>173.7262902142</v>
       </c>
       <c r="M4" t="n">
         <v>291.7197963418018</v>
@@ -4516,22 +4516,22 @@
         <v>571.5742683152296</v>
       </c>
       <c r="T4" t="n">
-        <v>338.3953151309084</v>
+        <v>571.5742683152296</v>
       </c>
       <c r="U4" t="n">
-        <v>338.3953151309084</v>
+        <v>284.3840288043294</v>
       </c>
       <c r="V4" t="n">
-        <v>338.3953151309084</v>
+        <v>284.3840288043294</v>
       </c>
       <c r="W4" t="n">
-        <v>338.3953151309084</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="X4" t="n">
-        <v>192.5869162415344</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.5869162415344</v>
+        <v>39.51502306929715</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1245.230023936637</v>
+        <v>1393.304718495708</v>
       </c>
       <c r="C5" t="n">
-        <v>863.2962652694441</v>
+        <v>1011.370959828515</v>
       </c>
       <c r="D5" t="n">
-        <v>863.2962652694441</v>
+        <v>638.5469950557388</v>
       </c>
       <c r="E5" t="n">
-        <v>468.510545375551</v>
+        <v>638.5469950557388</v>
       </c>
       <c r="F5" t="n">
-        <v>458.3997587261254</v>
+        <v>628.4362084063132</v>
       </c>
       <c r="G5" t="n">
-        <v>42.29577218031335</v>
+        <v>212.3322218605011</v>
       </c>
       <c r="H5" t="n">
-        <v>42.29577218031335</v>
+        <v>212.3322218605011</v>
       </c>
       <c r="I5" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="J5" t="n">
         <v>111.5135673421028</v>
@@ -4580,37 +4580,37 @@
         <v>1471.109837412635</v>
       </c>
       <c r="O5" t="n">
-        <v>1747.594257008805</v>
+        <v>1653.162003322267</v>
       </c>
       <c r="P5" t="n">
-        <v>1975.751153464858</v>
+        <v>1881.31889977832</v>
       </c>
       <c r="Q5" t="n">
-        <v>1975.751153464858</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R5" t="n">
-        <v>1975.751153464858</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="S5" t="n">
-        <v>1975.751153464858</v>
+        <v>1788.522178095212</v>
       </c>
       <c r="T5" t="n">
-        <v>1975.751153464858</v>
+        <v>1788.522178095212</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.751153464858</v>
+        <v>1788.522178095212</v>
       </c>
       <c r="V5" t="n">
-        <v>1638.771879360799</v>
+        <v>1788.522178095212</v>
       </c>
       <c r="W5" t="n">
-        <v>1638.771879360799</v>
+        <v>1786.84657391987</v>
       </c>
       <c r="X5" t="n">
-        <v>1638.771879360799</v>
+        <v>1786.84657391987</v>
       </c>
       <c r="Y5" t="n">
-        <v>1245.230023936637</v>
+        <v>1393.304718495708</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>918.8277835713412</v>
+        <v>717.624682949031</v>
       </c>
       <c r="C6" t="n">
-        <v>757.124110812296</v>
+        <v>560.0133255256414</v>
       </c>
       <c r="D6" t="n">
-        <v>618.285473802508</v>
+        <v>421.1746885158536</v>
       </c>
       <c r="E6" t="n">
-        <v>471.2574638593792</v>
+        <v>274.1466785727248</v>
       </c>
       <c r="F6" t="n">
-        <v>336.5636658092535</v>
+        <v>139.4528805225991</v>
       </c>
       <c r="G6" t="n">
-        <v>207.8351658325381</v>
+        <v>139.4528805225991</v>
       </c>
       <c r="H6" t="n">
-        <v>107.8973083792362</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="I6" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="J6" t="n">
-        <v>99.76916960240331</v>
+        <v>99.7691696024033</v>
       </c>
       <c r="K6" t="n">
         <v>329.259722162592</v>
@@ -4659,37 +4659,37 @@
         <v>1184.07997781526</v>
       </c>
       <c r="O6" t="n">
-        <v>1576.279928599411</v>
+        <v>1515.883604403566</v>
       </c>
       <c r="P6" t="n">
-        <v>1878.375847875108</v>
+        <v>1817.979523679263</v>
       </c>
       <c r="Q6" t="n">
-        <v>1975.751153464858</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R6" t="n">
         <v>1915.966884559803</v>
       </c>
       <c r="S6" t="n">
-        <v>1763.167397572544</v>
+        <v>1763.167397572543</v>
       </c>
       <c r="T6" t="n">
-        <v>1574.482293738529</v>
+        <v>1763.167397572543</v>
       </c>
       <c r="U6" t="n">
-        <v>1355.987501336839</v>
+        <v>1544.672605170854</v>
       </c>
       <c r="V6" t="n">
-        <v>1355.987501336839</v>
+        <v>1316.276982619187</v>
       </c>
       <c r="W6" t="n">
-        <v>1116.744771693547</v>
+        <v>1074.961113852497</v>
       </c>
       <c r="X6" t="n">
-        <v>918.8277835713412</v>
+        <v>877.044125730292</v>
       </c>
       <c r="Y6" t="n">
-        <v>918.8277835713412</v>
+        <v>877.044125730292</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4699,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>191.5240373079783</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="C7" t="n">
-        <v>191.5240373079783</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="D7" t="n">
-        <v>191.5240373079783</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="E7" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="F7" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="G7" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="H7" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="I7" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="J7" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="K7" t="n">
-        <v>73.11921081394057</v>
+        <v>73.11921081394055</v>
       </c>
       <c r="L7" t="n">
-        <v>173.7262902142001</v>
+        <v>173.7262902142</v>
       </c>
       <c r="M7" t="n">
         <v>291.7197963418018</v>
@@ -4747,28 +4747,28 @@
         <v>571.5742683152296</v>
       </c>
       <c r="R7" t="n">
-        <v>571.5742683152296</v>
+        <v>422.0524869296078</v>
       </c>
       <c r="S7" t="n">
-        <v>571.5742683152296</v>
+        <v>422.0524869296078</v>
       </c>
       <c r="T7" t="n">
-        <v>571.5742683152296</v>
+        <v>422.0524869296078</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3840288043294</v>
+        <v>134.8622474187076</v>
       </c>
       <c r="V7" t="n">
-        <v>284.3840288043294</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="W7" t="n">
-        <v>284.3840288043294</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="X7" t="n">
-        <v>191.5240373079783</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="Y7" t="n">
-        <v>191.5240373079783</v>
+        <v>39.51502306929715</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1368.663222384225</v>
+        <v>468.2390292964369</v>
       </c>
       <c r="C8" t="n">
-        <v>1368.663222384225</v>
+        <v>468.2390292964369</v>
       </c>
       <c r="D8" t="n">
-        <v>1368.663222384225</v>
+        <v>468.2390292964369</v>
       </c>
       <c r="E8" t="n">
-        <v>973.8775024903316</v>
+        <v>468.2390292964369</v>
       </c>
       <c r="F8" t="n">
-        <v>963.766715840906</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G8" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4829,25 +4829,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T8" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="U8" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="V8" t="n">
-        <v>2101.212805059961</v>
+        <v>1577.004555586257</v>
       </c>
       <c r="W8" t="n">
-        <v>2101.212805059961</v>
+        <v>1214.469625443858</v>
       </c>
       <c r="X8" t="n">
-        <v>2101.212805059961</v>
+        <v>862.282568814456</v>
       </c>
       <c r="Y8" t="n">
-        <v>1707.670949635799</v>
+        <v>862.282568814456</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>852.9547312933042</v>
+        <v>552.412421524471</v>
       </c>
       <c r="C9" t="n">
-        <v>691.251058534259</v>
+        <v>552.412421524471</v>
       </c>
       <c r="D9" t="n">
         <v>552.412421524471</v>
@@ -4881,22 +4881,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M9" t="n">
-        <v>737.8796590913968</v>
+        <v>1039.975578367094</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1551.241224490216</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P9" t="n">
         <v>1943.441175274367</v>
@@ -4911,22 +4911,22 @@
         <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1790.476462498405</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1571.981670096715</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1343.586047545049</v>
       </c>
       <c r="W9" t="n">
-        <v>1210.291162196771</v>
+        <v>1102.270178778359</v>
       </c>
       <c r="X9" t="n">
-        <v>1012.374174074565</v>
+        <v>904.3531906561531</v>
       </c>
       <c r="Y9" t="n">
-        <v>1012.374174074565</v>
+        <v>711.8318643057319</v>
       </c>
     </row>
     <row r="10">
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>363.6492398782001</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>194.0332703398804</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>194.0332703398804</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
         <v>42.02425610119923</v>
@@ -4981,31 +4981,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>535.5461600008207</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="T10" t="n">
-        <v>535.5461600008207</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="U10" t="n">
-        <v>535.5461600008207</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="V10" t="n">
-        <v>535.5461600008207</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="W10" t="n">
-        <v>535.5461600008207</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="X10" t="n">
-        <v>535.5461600008207</v>
+        <v>225.5796247855791</v>
       </c>
       <c r="Y10" t="n">
-        <v>535.5461600008207</v>
+        <v>225.5796247855791</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1261.534640397734</v>
+        <v>1352.440506054681</v>
       </c>
       <c r="C11" t="n">
-        <v>972.4235659881504</v>
+        <v>1063.329431645097</v>
       </c>
       <c r="D11" t="n">
-        <v>692.422285472983</v>
+        <v>783.32815112993</v>
       </c>
       <c r="E11" t="n">
-        <v>692.422285472983</v>
+        <v>692.4222854729829</v>
       </c>
       <c r="F11" t="n">
         <v>371.0937790407623</v>
@@ -5033,58 +5033,58 @@
         <v>371.0937790407623</v>
       </c>
       <c r="H11" t="n">
-        <v>131.0951888956807</v>
+        <v>131.0951888956806</v>
       </c>
       <c r="I11" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J11" t="n">
-        <v>214.074731475774</v>
+        <v>214.0747314757741</v>
       </c>
       <c r="K11" t="n">
-        <v>545.1906163614394</v>
+        <v>454.2151035205568</v>
       </c>
       <c r="L11" t="n">
         <v>893.0759894463856</v>
       </c>
       <c r="M11" t="n">
-        <v>1365.016670881214</v>
+        <v>1377.290668540356</v>
       </c>
       <c r="N11" t="n">
-        <v>1743.34802956893</v>
+        <v>1755.622027228072</v>
       </c>
       <c r="O11" t="n">
-        <v>2048.352614041763</v>
+        <v>2141.469055120814</v>
       </c>
       <c r="P11" t="n">
-        <v>2367.485023338699</v>
+        <v>2369.625951576867</v>
       </c>
       <c r="Q11" t="n">
-        <v>2552.892789866119</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R11" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S11" t="n">
-        <v>2555.033718104287</v>
+        <v>2460.62742699225</v>
       </c>
       <c r="T11" t="n">
-        <v>2555.033718104287</v>
+        <v>2329.09116498087</v>
       </c>
       <c r="U11" t="n">
-        <v>2392.97106607589</v>
+        <v>2167.028512952474</v>
       </c>
       <c r="V11" t="n">
-        <v>2148.814476229441</v>
+        <v>1922.871923106024</v>
       </c>
       <c r="W11" t="n">
-        <v>1879.10223034465</v>
+        <v>1653.159677221234</v>
       </c>
       <c r="X11" t="n">
-        <v>1863.474666824697</v>
+        <v>1653.159677221234</v>
       </c>
       <c r="Y11" t="n">
-        <v>1562.755495658144</v>
+        <v>1352.440506054681</v>
       </c>
     </row>
     <row r="12">
@@ -5100,13 +5100,13 @@
         <v>753.9971446449797</v>
       </c>
       <c r="D12" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E12" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F12" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G12" t="n">
         <v>219.4208171253267</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>288.9381750961573</v>
+        <v>127.8939596427964</v>
       </c>
       <c r="C13" t="n">
-        <v>288.9381750961573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D13" t="n">
-        <v>228.6889661815291</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E13" t="n">
-        <v>228.6889661815291</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F13" t="n">
-        <v>169.0309954649153</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="G13" t="n">
-        <v>169.0309954649153</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H13" t="n">
-        <v>102.4810345017982</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I13" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J13" t="n">
-        <v>83.21408766499906</v>
+        <v>83.21408766499908</v>
       </c>
       <c r="K13" t="n">
-        <v>207.7937882505251</v>
+        <v>207.7937882505252</v>
       </c>
       <c r="L13" t="n">
-        <v>399.3763804916672</v>
+        <v>399.3763804916673</v>
       </c>
       <c r="M13" t="n">
-        <v>608.3453994601516</v>
+        <v>608.3453994601517</v>
       </c>
       <c r="N13" t="n">
-        <v>817.7432540506346</v>
+        <v>817.7432540506347</v>
       </c>
       <c r="O13" t="n">
         <v>1007.182413387207</v>
@@ -5227,22 +5227,22 @@
         <v>1036.745299076875</v>
       </c>
       <c r="T13" t="n">
-        <v>896.3890301501624</v>
+        <v>896.3890301501627</v>
       </c>
       <c r="U13" t="n">
-        <v>702.0214748968713</v>
+        <v>702.0214748968717</v>
       </c>
       <c r="V13" t="n">
-        <v>534.1088547129029</v>
+        <v>534.1088547129034</v>
       </c>
       <c r="W13" t="n">
-        <v>340.775137487911</v>
+        <v>340.7751374879117</v>
       </c>
       <c r="X13" t="n">
-        <v>340.775137487911</v>
+        <v>202.3453576408965</v>
       </c>
       <c r="Y13" t="n">
-        <v>288.9381750961573</v>
+        <v>127.8939596427964</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1126.1307315702</v>
+        <v>1232.111337543239</v>
       </c>
       <c r="C14" t="n">
-        <v>1126.1307315702</v>
+        <v>943.0002631336556</v>
       </c>
       <c r="D14" t="n">
-        <v>1126.1307315702</v>
+        <v>943.0002631336556</v>
       </c>
       <c r="E14" t="n">
-        <v>824.1676959339159</v>
+        <v>943.0002631336556</v>
       </c>
       <c r="F14" t="n">
-        <v>502.8391895016952</v>
+        <v>621.671756701435</v>
       </c>
       <c r="G14" t="n">
-        <v>179.5578872134923</v>
+        <v>371.0937790407625</v>
       </c>
       <c r="H14" t="n">
-        <v>51.10067436208574</v>
+        <v>131.0951888956807</v>
       </c>
       <c r="I14" t="n">
         <v>51.10067436208574</v>
@@ -5279,25 +5279,25 @@
         <v>214.074731475774</v>
       </c>
       <c r="K14" t="n">
-        <v>545.1906163614394</v>
+        <v>454.2151035205568</v>
       </c>
       <c r="L14" t="n">
         <v>893.0759894463856</v>
       </c>
       <c r="M14" t="n">
-        <v>1377.290668540356</v>
+        <v>1286.315155699474</v>
       </c>
       <c r="N14" t="n">
-        <v>1846.597540068954</v>
+        <v>1755.622027228072</v>
       </c>
       <c r="O14" t="n">
-        <v>2230.303639723528</v>
+        <v>2151.602124541788</v>
       </c>
       <c r="P14" t="n">
-        <v>2458.460536179582</v>
+        <v>2379.759020997842</v>
       </c>
       <c r="Q14" t="n">
-        <v>2552.892789866119</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R14" t="n">
         <v>2555.033718104287</v>
@@ -5306,22 +5306,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="T14" t="n">
-        <v>2423.497456092907</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="U14" t="n">
-        <v>2261.43480406451</v>
+        <v>2392.97106607589</v>
       </c>
       <c r="V14" t="n">
-        <v>2017.278214218061</v>
+        <v>2392.97106607589</v>
       </c>
       <c r="W14" t="n">
-        <v>2017.278214218061</v>
+        <v>2123.2588201911</v>
       </c>
       <c r="X14" t="n">
-        <v>1728.070757997163</v>
+        <v>1834.051363970203</v>
       </c>
       <c r="Y14" t="n">
-        <v>1427.35158683061</v>
+        <v>1533.332192803649</v>
       </c>
     </row>
     <row r="15">
@@ -5331,31 +5331,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C15" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D15" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E15" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F15" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G15" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H15" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I15" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J15" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K15" t="n">
         <v>340.8453734553806</v>
@@ -5397,10 +5397,10 @@
         <v>1465.558574657912</v>
       </c>
       <c r="X15" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y15" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>305.9802284674157</v>
+        <v>127.8939596427964</v>
       </c>
       <c r="C16" t="n">
-        <v>229.1869431867053</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D16" t="n">
-        <v>168.9377342720771</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E16" t="n">
-        <v>127.1977387366267</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F16" t="n">
-        <v>127.1977387366267</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="G16" t="n">
         <v>51.10067436208574</v>
@@ -5434,19 +5434,19 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J16" t="n">
-        <v>83.21408766499906</v>
+        <v>83.21408766499903</v>
       </c>
       <c r="K16" t="n">
-        <v>207.7937882505251</v>
+        <v>207.793788250525</v>
       </c>
       <c r="L16" t="n">
-        <v>399.3763804916672</v>
+        <v>399.3763804916671</v>
       </c>
       <c r="M16" t="n">
-        <v>608.3453994601516</v>
+        <v>608.3453994601514</v>
       </c>
       <c r="N16" t="n">
-        <v>817.7432540506346</v>
+        <v>817.7432540506345</v>
       </c>
       <c r="O16" t="n">
         <v>1007.182413387207</v>
@@ -5458,28 +5458,28 @@
         <v>1214.33147454359</v>
       </c>
       <c r="R16" t="n">
-        <v>1157.632377415577</v>
+        <v>1157.632377415578</v>
       </c>
       <c r="S16" t="n">
         <v>1036.745299076874</v>
       </c>
       <c r="T16" t="n">
-        <v>896.3890301501617</v>
+        <v>896.3890301501622</v>
       </c>
       <c r="U16" t="n">
-        <v>896.3890301501617</v>
+        <v>702.021474896871</v>
       </c>
       <c r="V16" t="n">
-        <v>728.4764099661934</v>
+        <v>534.1088547129026</v>
       </c>
       <c r="W16" t="n">
-        <v>535.1426927412016</v>
+        <v>340.7751374879107</v>
       </c>
       <c r="X16" t="n">
-        <v>396.7129128941864</v>
+        <v>202.3453576408955</v>
       </c>
       <c r="Y16" t="n">
-        <v>396.7129128941864</v>
+        <v>202.3453576408955</v>
       </c>
     </row>
     <row r="17">
@@ -5516,22 +5516,22 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K17" t="n">
-        <v>479.0485364810483</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L17" t="n">
-        <v>826.9339095659946</v>
+        <v>875.5927382556528</v>
       </c>
       <c r="M17" t="n">
-        <v>1220.173075819082</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N17" t="n">
-        <v>1762.97220899783</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O17" t="n">
-        <v>2067.976793470664</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P17" t="n">
-        <v>2296.133689926718</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q17" t="n">
         <v>2555.033718104287</v>
@@ -5558,7 +5558,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y17" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="18">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C19" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D19" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E19" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F19" t="n">
         <v>52.21328648670347</v>
@@ -5677,46 +5677,46 @@
         <v>84.70486210672915</v>
       </c>
       <c r="L19" t="n">
-        <v>185.3119415069887</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M19" t="n">
-        <v>303.3054476345904</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N19" t="n">
-        <v>421.7277893841908</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O19" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P19" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q19" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R19" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S19" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T19" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U19" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V19" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W19" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X19" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I20" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J20" t="n">
-        <v>238.9081644362655</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K20" t="n">
-        <v>479.0485364810483</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L20" t="n">
-        <v>826.9339095659946</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M20" t="n">
-        <v>1220.173075819082</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N20" t="n">
-        <v>1762.97220899783</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O20" t="n">
-        <v>2067.976793470664</v>
+        <v>2116.635622160322</v>
       </c>
       <c r="P20" t="n">
         <v>2460.60146441775</v>
@@ -5792,10 +5792,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X20" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y20" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C21" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D21" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E21" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F21" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G21" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H21" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I21" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J21" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K21" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L21" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M21" t="n">
         <v>1191.700572135723</v>
@@ -5853,28 +5853,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R21" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S21" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T21" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U21" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V21" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W21" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X21" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y21" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C22" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D22" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E22" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F22" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G22" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H22" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I22" t="n">
-        <v>74.23504503930332</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J22" t="n">
-        <v>74.23504503930332</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K22" t="n">
-        <v>107.8392327839467</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L22" t="n">
-        <v>208.4463121842062</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M22" t="n">
-        <v>326.439818311808</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N22" t="n">
-        <v>444.8621600614084</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O22" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P22" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q22" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R22" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S22" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T22" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U22" t="n">
-        <v>398.7211345007348</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V22" t="n">
-        <v>305.7929665666896</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W22" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X22" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5969,10 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D23" t="n">
-        <v>942.7443621478541</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E23" t="n">
-        <v>715.7657787614932</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F23" t="n">
         <v>469.4217245791957</v>
@@ -5981,10 +5981,10 @@
         <v>221.1248745409159</v>
       </c>
       <c r="H23" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575745</v>
       </c>
       <c r="I23" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J23" t="n">
         <v>287.5669931259238</v>
@@ -5993,22 +5993,22 @@
         <v>527.7073651707066</v>
       </c>
       <c r="L23" t="n">
-        <v>875.5927382556529</v>
+        <v>991.4016840570267</v>
       </c>
       <c r="M23" t="n">
-        <v>1309.007660421797</v>
+        <v>1549.108624801147</v>
       </c>
       <c r="N23" t="n">
-        <v>1687.339019109512</v>
+        <v>1927.439983488863</v>
       </c>
       <c r="O23" t="n">
-        <v>2156.811378073379</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P23" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q23" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R23" t="n">
         <v>2555.033718104287</v>
@@ -6017,22 +6017,22 @@
         <v>2535.611879242173</v>
       </c>
       <c r="T23" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480716</v>
       </c>
       <c r="U23" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702242</v>
       </c>
       <c r="V23" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W23" t="n">
-        <v>2028.08193847085</v>
+        <v>2028.081938470849</v>
       </c>
       <c r="X23" t="n">
         <v>1813.858934499875</v>
       </c>
       <c r="Y23" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>915.700817404025</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C24" t="n">
-        <v>753.9971446449797</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D24" t="n">
-        <v>615.1585076351918</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E24" t="n">
-        <v>468.130497692063</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F24" t="n">
-        <v>333.4366996419374</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G24" t="n">
         <v>219.4208171253267</v>
@@ -6063,13 +6063,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I24" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J24" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K24" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L24" t="n">
         <v>706.6672186254962</v>
@@ -6090,28 +6090,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R24" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S24" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T24" t="n">
-        <v>2153.764858377958</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U24" t="n">
-        <v>1935.270065976268</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V24" t="n">
-        <v>1706.874443424602</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W24" t="n">
-        <v>1465.558574657912</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X24" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y24" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="25">
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.90950739287318</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C25" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54268635500837</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E25" t="n">
-        <v>65.54268635500837</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F25" t="n">
-        <v>65.54268635500837</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G25" t="n">
-        <v>64.43007423039064</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H25" t="n">
-        <v>72.69671914058929</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I25" t="n">
-        <v>95.83108981780688</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J25" t="n">
-        <v>95.83108981780688</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K25" t="n">
-        <v>129.4352775624503</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L25" t="n">
-        <v>230.0423569627098</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M25" t="n">
-        <v>348.0358630903115</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N25" t="n">
-        <v>466.4582048399119</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O25" t="n">
-        <v>564.9218513356016</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P25" t="n">
-        <v>627.8903350637394</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q25" t="n">
-        <v>627.8903350637394</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R25" t="n">
         <v>628.266068145054</v>
@@ -6178,19 +6178,19 @@
         <v>516.991625379485</v>
       </c>
       <c r="U25" t="n">
-        <v>397.6085223761172</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V25" t="n">
-        <v>304.680354442072</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W25" t="n">
-        <v>186.3310894670034</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X25" t="n">
         <v>122.8857618699114</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.65773956972075</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="26">
@@ -6209,52 +6209,52 @@
         <v>1143.562317889523</v>
       </c>
       <c r="E26" t="n">
-        <v>878.7372736133857</v>
+        <v>878.737273613386</v>
       </c>
       <c r="F26" t="n">
-        <v>594.5467585413123</v>
+        <v>594.5467585413126</v>
       </c>
       <c r="G26" t="n">
-        <v>308.4034476132566</v>
+        <v>308.4034476132567</v>
       </c>
       <c r="H26" t="n">
-        <v>105.5428488283221</v>
+        <v>105.5428488283222</v>
       </c>
       <c r="I26" t="n">
-        <v>62.68632565487432</v>
+        <v>62.68632565487433</v>
       </c>
       <c r="J26" t="n">
-        <v>262.0593281006429</v>
+        <v>262.0593281006427</v>
       </c>
       <c r="K26" t="n">
-        <v>629.5741583183885</v>
+        <v>629.5741583183883</v>
       </c>
       <c r="L26" t="n">
-        <v>1104.833989576298</v>
+        <v>1059.739858752426</v>
       </c>
       <c r="M26" t="n">
-        <v>1625.447614002348</v>
+        <v>1580.353483178476</v>
       </c>
       <c r="N26" t="n">
-        <v>2086.059300039154</v>
+        <v>2086.059300039155</v>
       </c>
       <c r="O26" t="n">
-        <v>2518.438342684951</v>
+        <v>2518.438342684952</v>
       </c>
       <c r="P26" t="n">
-        <v>2873.969697313967</v>
+        <v>2873.969697313968</v>
       </c>
       <c r="Q26" t="n">
-        <v>3095.776409173467</v>
+        <v>3095.776409173468</v>
       </c>
       <c r="R26" t="n">
         <v>3134.316282743716</v>
       </c>
       <c r="S26" t="n">
-        <v>3077.047982991826</v>
+        <v>3077.047982991827</v>
       </c>
       <c r="T26" t="n">
-        <v>2982.649712340593</v>
+        <v>2982.649712340594</v>
       </c>
       <c r="U26" t="n">
         <v>2857.725051672344</v>
@@ -6285,10 +6285,10 @@
         <v>765.5827959377687</v>
       </c>
       <c r="D27" t="n">
-        <v>626.7441589279807</v>
+        <v>641.4567763880852</v>
       </c>
       <c r="E27" t="n">
-        <v>479.7161489848519</v>
+        <v>494.4287664449564</v>
       </c>
       <c r="F27" t="n">
         <v>359.7349683948307</v>
@@ -6300,7 +6300,7 @@
         <v>131.0686109648133</v>
       </c>
       <c r="I27" t="n">
-        <v>62.68632565487432</v>
+        <v>62.68632565487433</v>
       </c>
       <c r="J27" t="n">
         <v>122.9404721879805</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>252.6345665042394</v>
+        <v>252.63456650424</v>
       </c>
       <c r="C28" t="n">
-        <v>212.9792725836759</v>
+        <v>212.9792725836765</v>
       </c>
       <c r="D28" t="n">
-        <v>189.8680550291949</v>
+        <v>189.8680550291953</v>
       </c>
       <c r="E28" t="n">
-        <v>167.8197164082699</v>
+        <v>167.8197164082703</v>
       </c>
       <c r="F28" t="n">
-        <v>145.2997370518033</v>
+        <v>145.2997370518036</v>
       </c>
       <c r="G28" t="n">
-        <v>106.3406640374095</v>
+        <v>106.3406640374097</v>
       </c>
       <c r="H28" t="n">
-        <v>76.92869443443956</v>
+        <v>76.92869443443966</v>
       </c>
       <c r="I28" t="n">
-        <v>62.68632565487432</v>
+        <v>62.68632565487433</v>
       </c>
       <c r="J28" t="n">
-        <v>131.1986842898679</v>
+        <v>62.68632565487433</v>
       </c>
       <c r="K28" t="n">
-        <v>164.8028720345113</v>
+        <v>96.29051339951775</v>
       </c>
       <c r="L28" t="n">
-        <v>370.3525675225758</v>
+        <v>280.7485576031343</v>
       </c>
       <c r="M28" t="n">
-        <v>615.7205318231404</v>
+        <v>526.1165219036988</v>
       </c>
       <c r="N28" t="n">
-        <v>861.5173317457037</v>
+        <v>644.5388636532991</v>
       </c>
       <c r="O28" t="n">
-        <v>1087.355436414356</v>
+        <v>870.3769683219516</v>
       </c>
       <c r="P28" t="n">
-        <v>1150.323920142494</v>
+        <v>1060.719910223052</v>
       </c>
       <c r="Q28" t="n">
-        <v>1150.323920142494</v>
+        <v>1150.323920142496</v>
       </c>
       <c r="R28" t="n">
-        <v>1130.762814374629</v>
+        <v>1130.76281437463</v>
       </c>
       <c r="S28" t="n">
-        <v>1047.013727396072</v>
+        <v>1047.013727396074</v>
       </c>
       <c r="T28" t="n">
-        <v>943.7954498295073</v>
+        <v>943.7954498295086</v>
       </c>
       <c r="U28" t="n">
-        <v>786.5658859363634</v>
+        <v>786.5658859363646</v>
       </c>
       <c r="V28" t="n">
-        <v>655.7912571125423</v>
+        <v>655.7912571125433</v>
       </c>
       <c r="W28" t="n">
-        <v>499.5955312476977</v>
+        <v>499.5955312476986</v>
       </c>
       <c r="X28" t="n">
-        <v>398.3037427608297</v>
+        <v>398.3037427608305</v>
       </c>
       <c r="Y28" t="n">
-        <v>306.229259570863</v>
+        <v>306.2292595708637</v>
       </c>
     </row>
     <row r="29">
@@ -6446,13 +6446,13 @@
         <v>1143.562317889523</v>
       </c>
       <c r="E29" t="n">
-        <v>878.7372736133858</v>
+        <v>878.7372736133863</v>
       </c>
       <c r="F29" t="n">
-        <v>594.5467585413123</v>
+        <v>594.5467585413128</v>
       </c>
       <c r="G29" t="n">
-        <v>308.4034476132565</v>
+        <v>308.403447613257</v>
       </c>
       <c r="H29" t="n">
         <v>105.5428488283221</v>
@@ -6470,16 +6470,16 @@
         <v>1104.833989576298</v>
       </c>
       <c r="M29" t="n">
-        <v>1580.353483178476</v>
+        <v>1625.447614002348</v>
       </c>
       <c r="N29" t="n">
-        <v>2086.059300039155</v>
+        <v>2131.153430863027</v>
       </c>
       <c r="O29" t="n">
-        <v>2518.438342684951</v>
+        <v>2563.532473508824</v>
       </c>
       <c r="P29" t="n">
-        <v>2873.969697313968</v>
+        <v>2919.06382813784</v>
       </c>
       <c r="Q29" t="n">
         <v>3095.776409173468</v>
@@ -6494,13 +6494,13 @@
         <v>2982.649712340594</v>
       </c>
       <c r="U29" t="n">
-        <v>2857.725051672344</v>
+        <v>2857.725051672345</v>
       </c>
       <c r="V29" t="n">
         <v>2650.706453186042</v>
       </c>
       <c r="W29" t="n">
-        <v>2418.132198661399</v>
+        <v>2418.1321986614</v>
       </c>
       <c r="X29" t="n">
         <v>2166.062733800649</v>
@@ -6528,13 +6528,13 @@
         <v>479.7161489848519</v>
       </c>
       <c r="F30" t="n">
-        <v>359.7349683948307</v>
+        <v>345.0223509347263</v>
       </c>
       <c r="G30" t="n">
-        <v>231.0064684181153</v>
+        <v>216.2938509580109</v>
       </c>
       <c r="H30" t="n">
-        <v>131.0686109648133</v>
+        <v>116.3559935047089</v>
       </c>
       <c r="I30" t="n">
         <v>62.68632565487433</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>252.6345665042394</v>
+        <v>252.6345665042392</v>
       </c>
       <c r="C31" t="n">
-        <v>212.9792725836759</v>
+        <v>212.9792725836758</v>
       </c>
       <c r="D31" t="n">
-        <v>189.8680550291949</v>
+        <v>189.8680550291947</v>
       </c>
       <c r="E31" t="n">
-        <v>167.81971640827</v>
+        <v>167.8197164082698</v>
       </c>
       <c r="F31" t="n">
-        <v>145.2997370518033</v>
+        <v>145.2997370518032</v>
       </c>
       <c r="G31" t="n">
         <v>106.3406640374095</v>
       </c>
       <c r="H31" t="n">
-        <v>76.92869443443958</v>
+        <v>76.92869443443955</v>
       </c>
       <c r="I31" t="n">
         <v>62.68632565487433</v>
@@ -6622,19 +6622,19 @@
         <v>131.1986842898679</v>
       </c>
       <c r="K31" t="n">
-        <v>292.1773302074741</v>
+        <v>292.1773302074743</v>
       </c>
       <c r="L31" t="n">
-        <v>408.1230157760951</v>
+        <v>520.1588677806967</v>
       </c>
       <c r="M31" t="n">
-        <v>653.4909800766598</v>
+        <v>765.5268320812613</v>
       </c>
       <c r="N31" t="n">
-        <v>899.2877799992229</v>
+        <v>899.2877799992227</v>
       </c>
       <c r="O31" t="n">
-        <v>997.7514264949126</v>
+        <v>997.7514264949124</v>
       </c>
       <c r="P31" t="n">
         <v>1060.71991022305</v>
@@ -6643,28 +6643,28 @@
         <v>1150.323920142494</v>
       </c>
       <c r="R31" t="n">
-        <v>1130.762814374629</v>
+        <v>1130.762814374628</v>
       </c>
       <c r="S31" t="n">
         <v>1047.013727396072</v>
       </c>
       <c r="T31" t="n">
-        <v>943.7954498295073</v>
+        <v>943.7954498295071</v>
       </c>
       <c r="U31" t="n">
-        <v>786.5658859363634</v>
+        <v>786.5658859363632</v>
       </c>
       <c r="V31" t="n">
-        <v>655.7912571125423</v>
+        <v>655.7912571125421</v>
       </c>
       <c r="W31" t="n">
-        <v>499.5955312476977</v>
+        <v>499.5955312476974</v>
       </c>
       <c r="X31" t="n">
-        <v>398.3037427608297</v>
+        <v>398.3037427608294</v>
       </c>
       <c r="Y31" t="n">
-        <v>306.229259570863</v>
+        <v>306.2292595708628</v>
       </c>
     </row>
     <row r="32">
@@ -6701,22 +6701,22 @@
         <v>267.5838060976603</v>
       </c>
       <c r="K32" t="n">
-        <v>643.1323473443256</v>
+        <v>507.7241781424431</v>
       </c>
       <c r="L32" t="n">
-        <v>1021.484110185686</v>
+        <v>991.0177204292718</v>
       </c>
       <c r="M32" t="n">
-        <v>1550.131445640657</v>
+        <v>1519.665055884242</v>
       </c>
       <c r="N32" t="n">
-        <v>2063.870973530255</v>
+        <v>2033.40458377384</v>
       </c>
       <c r="O32" t="n">
-        <v>2504.283727204971</v>
+        <v>2473.817337448557</v>
       </c>
       <c r="P32" t="n">
-        <v>2867.848792862907</v>
+        <v>2732.440623661025</v>
       </c>
       <c r="Q32" t="n">
         <v>2962.281046549444</v>
@@ -6801,7 +6801,7 @@
         <v>2564.110136365174</v>
       </c>
       <c r="R33" t="n">
-        <v>2504.325867460119</v>
+        <v>2519.038484920224</v>
       </c>
       <c r="S33" t="n">
         <v>2366.238997932964</v>
@@ -6856,22 +6856,22 @@
         <v>60.17709262297225</v>
       </c>
       <c r="J34" t="n">
-        <v>60.17709262297225</v>
+        <v>116.1521360451174</v>
       </c>
       <c r="K34" t="n">
-        <v>93.78128036761566</v>
+        <v>285.1644929916432</v>
       </c>
       <c r="L34" t="n">
-        <v>329.7965289697576</v>
+        <v>521.1797415937851</v>
       </c>
       <c r="M34" t="n">
-        <v>447.7900350973593</v>
+        <v>639.1732477213868</v>
       </c>
       <c r="N34" t="n">
-        <v>701.6205460488421</v>
+        <v>757.5955894709872</v>
       </c>
       <c r="O34" t="n">
-        <v>800.0841925445318</v>
+        <v>856.0592359666769</v>
       </c>
       <c r="P34" t="n">
         <v>919.0277196948147</v>
@@ -6935,28 +6935,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J35" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K35" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>711.1249637646204</v>
+        <v>991.4016840570268</v>
       </c>
       <c r="M35" t="n">
-        <v>1268.831904508741</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N35" t="n">
-        <v>1647.163263196456</v>
+        <v>1927.439983488863</v>
       </c>
       <c r="O35" t="n">
-        <v>2116.635622160323</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P35" t="n">
-        <v>2344.792518616376</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
@@ -6993,22 +6993,22 @@
         <v>915.7008174040254</v>
       </c>
       <c r="C36" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D36" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E36" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F36" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G36" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I36" t="n">
         <v>51.10067436208574</v>
@@ -7087,31 +7087,31 @@
         <v>51.10067436208574</v>
       </c>
       <c r="H37" t="n">
-        <v>59.36731927228439</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I37" t="n">
-        <v>59.36731927228439</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J37" t="n">
-        <v>59.36731927228439</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K37" t="n">
-        <v>92.9715070169278</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L37" t="n">
-        <v>231.5307021686421</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>349.5242082962438</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N37" t="n">
-        <v>467.9465500458442</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O37" t="n">
-        <v>566.4101965415339</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P37" t="n">
-        <v>629.3786802696717</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q37" t="n">
         <v>629.3786802696717</v>
@@ -7178,19 +7178,19 @@
         <v>527.7073651707066</v>
       </c>
       <c r="L38" t="n">
-        <v>875.5927382556529</v>
+        <v>915.7684941687087</v>
       </c>
       <c r="M38" t="n">
-        <v>1433.299678999773</v>
+        <v>1309.007660421797</v>
       </c>
       <c r="N38" t="n">
-        <v>1811.631037687489</v>
+        <v>1851.806793600545</v>
       </c>
       <c r="O38" t="n">
-        <v>2116.635622160323</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P38" t="n">
-        <v>2344.792518616376</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q38" t="n">
         <v>2479.400528215969</v>
@@ -7230,22 +7230,22 @@
         <v>915.7008174040254</v>
       </c>
       <c r="C39" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D39" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E39" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F39" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G39" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H39" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I39" t="n">
         <v>51.10067436208573</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F40" t="n">
         <v>52.21328648670345</v>
@@ -7336,46 +7336,46 @@
         <v>84.70486210672914</v>
       </c>
       <c r="L40" t="n">
-        <v>185.3119415069887</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M40" t="n">
-        <v>303.3054476345904</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9465500458442</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O40" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007348</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666896</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W40" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="41">
@@ -7409,25 +7409,25 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
-        <v>238.9081644362654</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>479.0485364810482</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>826.9339095659944</v>
+        <v>826.9339095659946</v>
       </c>
       <c r="M41" t="n">
-        <v>1384.640850310115</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N41" t="n">
-        <v>1762.97220899783</v>
+        <v>1598.504434506798</v>
       </c>
       <c r="O41" t="n">
-        <v>2067.976793470664</v>
+        <v>1903.509018979632</v>
       </c>
       <c r="P41" t="n">
-        <v>2460.60146441775</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q41" t="n">
         <v>2555.033718104287</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G42" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H42" t="n">
         <v>119.4829596720247</v>
@@ -7494,7 +7494,7 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M42" t="n">
         <v>1191.700572135723</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S42" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U42" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V42" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W42" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C43" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D43" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E43" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F43" t="n">
         <v>52.21328648670347</v>
@@ -7576,43 +7576,43 @@
         <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>349.5242082962438</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N43" t="n">
-        <v>467.9465500458442</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O43" t="n">
-        <v>566.4101965415339</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P43" t="n">
-        <v>629.3786802696717</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q43" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R43" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S43" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T43" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U43" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W43" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X43" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="44">
@@ -7640,25 +7640,25 @@
         <v>221.124874540916</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575752</v>
+        <v>56.11073664575749</v>
       </c>
       <c r="I44" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>287.5669931259237</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K44" t="n">
-        <v>527.7073651707065</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L44" t="n">
-        <v>875.5927382556526</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M44" t="n">
-        <v>1268.831904508741</v>
+        <v>1549.108624801147</v>
       </c>
       <c r="N44" t="n">
-        <v>1762.97220899783</v>
+        <v>1927.439983488863</v>
       </c>
       <c r="O44" t="n">
         <v>2232.444567961697</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E45" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F45" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H45" t="n">
         <v>119.4829596720247</v>
@@ -7731,7 +7731,7 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L45" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M45" t="n">
         <v>1191.700572135723</v>
@@ -7749,22 +7749,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V45" t="n">
-        <v>1706.874443424602</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W45" t="n">
-        <v>1465.558574657912</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X45" t="n">
         <v>1267.641586535707</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1979.677157352105</v>
+        <v>52.90950739287321</v>
       </c>
       <c r="C46" t="n">
-        <v>1977.868324321318</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D46" t="n">
-        <v>1977.868324321318</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E46" t="n">
-        <v>1977.868324321318</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="F46" t="n">
-        <v>1977.868324321318</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="G46" t="n">
-        <v>1976.7557121967</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H46" t="n">
-        <v>1985.022357106899</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I46" t="n">
-        <v>1985.022357106899</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J46" t="n">
-        <v>1985.022357106899</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K46" t="n">
-        <v>2018.626544851542</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L46" t="n">
-        <v>2119.233624251802</v>
+        <v>230.4180900440247</v>
       </c>
       <c r="M46" t="n">
-        <v>2237.227130379404</v>
+        <v>348.4115961716265</v>
       </c>
       <c r="N46" t="n">
-        <v>2355.649472129004</v>
+        <v>466.8339379212268</v>
       </c>
       <c r="O46" t="n">
-        <v>2492.065234376149</v>
+        <v>565.2975844169165</v>
       </c>
       <c r="P46" t="n">
-        <v>2555.033718104287</v>
+        <v>628.2660681450543</v>
       </c>
       <c r="Q46" t="n">
-        <v>2555.033718104287</v>
+        <v>628.2660681450543</v>
       </c>
       <c r="R46" t="n">
-        <v>2555.033718104287</v>
+        <v>628.2660681450543</v>
       </c>
       <c r="S46" t="n">
-        <v>2509.131092015507</v>
+        <v>582.3634420562742</v>
       </c>
       <c r="T46" t="n">
-        <v>2443.759275338718</v>
+        <v>516.9916253794852</v>
       </c>
       <c r="U46" t="n">
-        <v>2324.37617233535</v>
+        <v>397.6085223761173</v>
       </c>
       <c r="V46" t="n">
-        <v>2231.448004401304</v>
+        <v>304.6803544420721</v>
       </c>
       <c r="W46" t="n">
-        <v>2113.098739426236</v>
+        <v>186.3310894670035</v>
       </c>
       <c r="X46" t="n">
-        <v>2049.653411829144</v>
+        <v>122.8857618699115</v>
       </c>
       <c r="Y46" t="n">
-        <v>1995.425389528953</v>
+        <v>68.6577395697208</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
         <v>421.3890363425141</v>
@@ -7988,13 +7988,13 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
-        <v>517.0824418462904</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>418.3383206229274</v>
+        <v>294.1439584378749</v>
       </c>
       <c r="Q2" t="n">
         <v>276.0094878578761</v>
@@ -8067,10 +8067,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>600.6529294339227</v>
+        <v>209.079143655663</v>
       </c>
       <c r="O3" t="n">
-        <v>120.4472292814887</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
         <v>414.0015992319183</v>
@@ -8228,13 +8228,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
-        <v>466.2319882914024</v>
+        <v>370.8458734565163</v>
       </c>
       <c r="P5" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8307,13 +8307,13 @@
         <v>600.6529294339227</v>
       </c>
       <c r="O6" t="n">
-        <v>512.0210150597484</v>
+        <v>451.0146269831372</v>
       </c>
       <c r="P6" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>212.0940859799931</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8529,7 +8529,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
@@ -8538,7 +8538,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>156.1797194573845</v>
+        <v>522.1898869410242</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
@@ -8547,7 +8547,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
         <v>273.1004740566038</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566032</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>298.2086467078059</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>298.9434052799213</v>
+        <v>208.9465982795436</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.46222820091661</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>130.220899391266</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>270.8440937739351</v>
+        <v>286.3153816586886</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.82535758250306</v>
+        <v>89.82535758250303</v>
       </c>
       <c r="C13" t="n">
-        <v>76.02535242790354</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>59.6467168254819</v>
       </c>
       <c r="E13" t="n">
-        <v>58.59446668126138</v>
+        <v>58.59446668126135</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>59.06139100944766</v>
       </c>
       <c r="G13" t="n">
-        <v>75.33609373079553</v>
+        <v>75.3360937307955</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>65.88446135348592</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>50.86655653831527</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>137.045482048545</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>76.60175703677655</v>
+        <v>54.21346578649358</v>
       </c>
     </row>
     <row r="14">
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>286.2199636654877</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>277.2012677100157</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>298.9434052799213</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>71.97629138125518</v>
       </c>
       <c r="H14" t="n">
-        <v>110.4259635207384</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>79.19456938825898</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.46222820091661</v>
+        <v>93.46222820091666</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>130.220899391266</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.7150239479851</v>
       </c>
       <c r="W14" t="n">
-        <v>267.015123425942</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>16.11847356438501</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>59.64671682548197</v>
       </c>
       <c r="E16" t="n">
-        <v>17.2718711011655</v>
+        <v>58.59446668126142</v>
       </c>
       <c r="F16" t="n">
-        <v>59.06139100944769</v>
+        <v>59.06139100944773</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>75.33609373079557</v>
       </c>
       <c r="H16" t="n">
-        <v>65.88446135348595</v>
+        <v>65.88446135348599</v>
       </c>
       <c r="I16" t="n">
-        <v>50.86655653831529</v>
+        <v>50.86655653831534</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>192.4238797007582</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.9203498046127</v>
+        <v>127.9203498046128</v>
       </c>
     </row>
     <row r="17">
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>3.517186542012496e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -26317,19 +26317,19 @@
         <v>115143.6090741273</v>
       </c>
       <c r="D2" t="n">
+        <v>115143.6090741273</v>
+      </c>
+      <c r="E2" t="n">
+        <v>99999.84819591748</v>
+      </c>
+      <c r="F2" t="n">
+        <v>99999.84819591744</v>
+      </c>
+      <c r="G2" t="n">
         <v>115143.6090741272</v>
       </c>
-      <c r="E2" t="n">
-        <v>99999.8481959175</v>
-      </c>
-      <c r="F2" t="n">
-        <v>99999.84819591745</v>
-      </c>
-      <c r="G2" t="n">
-        <v>115143.6090741273</v>
-      </c>
       <c r="H2" t="n">
-        <v>115143.6090741273</v>
+        <v>115143.6090741272</v>
       </c>
       <c r="I2" t="n">
         <v>115143.6090741272</v>
@@ -26344,7 +26344,7 @@
         <v>115143.6090741273</v>
       </c>
       <c r="M2" t="n">
-        <v>115143.6090741272</v>
+        <v>115143.6090741273</v>
       </c>
       <c r="N2" t="n">
         <v>115143.6090741272</v>
@@ -26353,7 +26353,7 @@
         <v>115143.6090741272</v>
       </c>
       <c r="P2" t="n">
-        <v>115143.6090741272</v>
+        <v>115143.6090741273</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165529.9134506509</v>
+        <v>165529.9134506508</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9743.038208746759</v>
+        <v>9743.038208746775</v>
       </c>
       <c r="E3" t="n">
-        <v>107390.8010757635</v>
+        <v>107390.8010757636</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59387.68618193919</v>
+        <v>59387.68618193921</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>210668.4794422432</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>65879.57388207622</v>
+        <v>65879.57388207623</v>
       </c>
       <c r="M3" t="n">
         <v>23482.5093245656</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>43541.16890732374</v>
+        <v>43541.1689073237</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,16 +26418,16 @@
         <v>194229.03306035</v>
       </c>
       <c r="C4" t="n">
-        <v>194229.03306035</v>
+        <v>194229.0330603501</v>
       </c>
       <c r="D4" t="n">
-        <v>185775.7593332931</v>
+        <v>185775.7593332932</v>
       </c>
       <c r="E4" t="n">
         <v>118181.7253353295</v>
       </c>
       <c r="F4" t="n">
-        <v>118181.7253353295</v>
+        <v>118181.7253353294</v>
       </c>
       <c r="G4" t="n">
         <v>175623.1205402357</v>
@@ -26451,7 +26451,7 @@
         <v>175623.1205402357</v>
       </c>
       <c r="N4" t="n">
-        <v>175623.1205402356</v>
+        <v>175623.1205402357</v>
       </c>
       <c r="O4" t="n">
         <v>175623.1205402357</v>
@@ -26479,7 +26479,7 @@
         <v>46561.98765560957</v>
       </c>
       <c r="F5" t="n">
-        <v>46561.98765560957</v>
+        <v>46561.98765560956</v>
       </c>
       <c r="G5" t="n">
         <v>52802.81689264637</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-308274.3549695395</v>
+        <v>-308274.3549695396</v>
       </c>
       <c r="C6" t="n">
         <v>-142744.4415188886</v>
@@ -26528,40 +26528,40 @@
         <v>-145941.2231048241</v>
       </c>
       <c r="E6" t="n">
-        <v>-172134.6658707851</v>
+        <v>-172387.0618854219</v>
       </c>
       <c r="F6" t="n">
-        <v>-64743.8647950216</v>
+        <v>-64996.26080965826</v>
       </c>
       <c r="G6" t="n">
         <v>-172670.014540694</v>
       </c>
       <c r="H6" t="n">
-        <v>-113282.3283587547</v>
+        <v>-113282.3283587548</v>
       </c>
       <c r="I6" t="n">
         <v>-113282.3283587548</v>
       </c>
       <c r="J6" t="n">
-        <v>-330351.6981997365</v>
+        <v>-330351.6981997364</v>
       </c>
       <c r="K6" t="n">
-        <v>-119683.2187574933</v>
+        <v>-119683.2187574934</v>
       </c>
       <c r="L6" t="n">
-        <v>-184169.9872647611</v>
+        <v>-184169.9872647612</v>
       </c>
       <c r="M6" t="n">
-        <v>-136764.8376833204</v>
+        <v>-136764.8376833203</v>
       </c>
       <c r="N6" t="n">
-        <v>-113282.3283587547</v>
+        <v>-113282.3283587548</v>
       </c>
       <c r="O6" t="n">
         <v>-156823.4972660785</v>
       </c>
       <c r="P6" t="n">
-        <v>-113282.3283587547</v>
+        <v>-113282.3283587548</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="F2" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="G2" t="n">
         <v>166.1290651424569</v>
@@ -26707,7 +26707,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J2" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="K2" t="n">
         <v>128.6610688615787</v>
@@ -26805,13 +26805,13 @@
         <v>638.7584295260717</v>
       </c>
       <c r="H4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="I4" t="n">
         <v>638.7584295260716</v>
       </c>
-      <c r="I4" t="n">
-        <v>638.7584295260717</v>
-      </c>
       <c r="J4" t="n">
-        <v>783.579070685929</v>
+        <v>783.5790706859291</v>
       </c>
       <c r="K4" t="n">
         <v>783.5790706859291</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.23460772742398</v>
+        <v>74.23460772742402</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>54.42646113415468</v>
+        <v>54.42646113415462</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>82.34946735259528</v>
+        <v>82.3494673525953</v>
       </c>
       <c r="M2" t="n">
         <v>29.353136655707</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415468</v>
+        <v>54.42646113415462</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>31.3654128987759</v>
+        <v>31.36541289877596</v>
       </c>
       <c r="E4" t="n">
         <v>113.4552282610814</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260715</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.23460772742398</v>
+        <v>74.23460772742402</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415468</v>
+        <v>54.42646113415462</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>31.3654128987759</v>
+        <v>31.36541289877596</v>
       </c>
       <c r="M4" t="n">
         <v>113.4552282610814</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>231.3913271166319</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27430,22 +27430,22 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>57.96135062680645</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>98.43777758150317</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.05240773216363</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27540,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
         <v>150.4889240962943</v>
@@ -27588,19 +27588,19 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>40.87452179009293</v>
       </c>
       <c r="X4" t="n">
-        <v>84.58962456309771</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27619,10 +27619,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>168.3360851833859</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
@@ -27673,10 +27673,10 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>357.2507327073869</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>4.051392182299196</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,16 +27746,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>2.052407732163744</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
         <v>150.9558484244806</v>
@@ -27819,7 +27819,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
@@ -27831,13 +27831,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>163.7341992912452</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>137.0085478821904</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.48545414378015</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -27859,19 +27859,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27910,16 +27910,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>29.5446530106139</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27932,10 +27932,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27983,7 +27983,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>89.62719199312434</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27992,13 +27992,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>196.5679655773522</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.54186407614165</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
         <v>150.9558484244806</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>97.40099082689017</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="C11" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="D11" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="E11" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="F11" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="G11" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="H11" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="I11" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="J11" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="K11" t="n">
-        <v>91.89445741503296</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="M11" t="n">
-        <v>79.49647998155592</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>81.65903375748246</v>
       </c>
       <c r="P11" t="n">
-        <v>91.89445741503296</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="R11" t="n">
-        <v>91.89445741503296</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="T11" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="U11" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="V11" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="W11" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="X11" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
     </row>
     <row r="12">
@@ -28172,7 +28172,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>14.5654912855037</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -28181,7 +28181,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="C13" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="D13" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="E13" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="F13" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="G13" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="H13" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="I13" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="J13" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="K13" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="L13" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="M13" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="N13" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="O13" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="P13" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="R13" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="S13" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="T13" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="U13" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="V13" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="W13" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="X13" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503299</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="C14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="D14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="E14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="G14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="H14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="I14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="J14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="K14" t="n">
-        <v>91.89445741503296</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="M14" t="n">
-        <v>91.89445741503296</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="O14" t="n">
-        <v>79.49647998155541</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>81.65903375748312</v>
       </c>
       <c r="R14" t="n">
-        <v>91.89445741503296</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="T14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="U14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="V14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="W14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="X14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28469,7 +28469,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>14.5654912855039</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="C16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="D16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="E16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="G16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="H16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="I16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="J16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="K16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="L16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="M16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="N16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="O16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="P16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="R16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="S16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="T16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="U16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="V16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="W16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="X16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.89445741503296</v>
+        <v>91.89445741503292</v>
       </c>
     </row>
     <row r="17">
@@ -28588,25 +28588,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>116.9787331327011</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.1290651424569</v>
+        <v>116.9787331327008</v>
       </c>
       <c r="R17" t="n">
         <v>89.73190363910518</v>
@@ -28731,7 +28731,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G19" t="n">
         <v>166.1290651424569</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>45.56176619902601</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>46.68561682995295</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28822,7 +28822,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9787331327012</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28831,7 +28831,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="N20" t="n">
         <v>166.1290651424569</v>
@@ -28840,7 +28840,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>166.1290651424569</v>
+        <v>116.9787331327013</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28968,7 +28968,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G22" t="n">
         <v>166.1290651424569</v>
@@ -28977,7 +28977,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I22" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J22" t="n">
         <v>59.456666199969</v>
@@ -28989,13 +28989,13 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>45.56176619902598</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>23.31756564084428</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29065,16 +29065,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>116.9787331327009</v>
       </c>
       <c r="M23" t="n">
-        <v>40.58157162934947</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>166.1290651424569</v>
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -29168,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>14.56549128550355</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29199,10 +29199,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D25" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>151.6127747272213</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -29211,10 +29211,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H25" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I25" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J25" t="n">
         <v>59.456666199969</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>45.56176619902598</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>148.4060919367298</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
         <v>166.1290651424569</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="C26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="D26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="E26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="F26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="G26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="H26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="J26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="K26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="L26" t="n">
-        <v>128.6610688615787</v>
+        <v>83.11144176675884</v>
       </c>
       <c r="M26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="N26" t="n">
-        <v>83.11144176675748</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="O26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="P26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Q26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="R26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="S26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="T26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="U26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="V26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="W26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="X26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Y26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
     </row>
     <row r="27">
@@ -29357,13 +29357,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>14.56549128550347</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>14.56549128550341</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="C28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="D28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="E28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="F28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="G28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="H28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="I28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="J28" t="n">
-        <v>128.6610688615787</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>106.0026425129343</v>
+        <v>84.69794424581517</v>
       </c>
       <c r="M28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="N28" t="n">
-        <v>128.6610688615787</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Q28" t="n">
-        <v>38.15196793284785</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="R28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="S28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="T28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="U28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="V28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="W28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="X28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615786</v>
       </c>
     </row>
     <row r="29">
@@ -29542,7 +29542,7 @@
         <v>128.6610688615787</v>
       </c>
       <c r="M29" t="n">
-        <v>83.11144176675793</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="N29" t="n">
         <v>128.6610688615787</v>
@@ -29554,7 +29554,7 @@
         <v>128.6610688615787</v>
       </c>
       <c r="Q29" t="n">
-        <v>128.6610688615787</v>
+        <v>83.11144176675799</v>
       </c>
       <c r="R29" t="n">
         <v>128.6610688615787</v>
@@ -29600,7 +29600,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>14.56549128550341</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -29609,7 +29609,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>14.56549128550336</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29697,13 +29697,13 @@
         <v>128.6610688615787</v>
       </c>
       <c r="L31" t="n">
-        <v>15.49354158420354</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="M31" t="n">
         <v>128.6610688615787</v>
       </c>
       <c r="N31" t="n">
-        <v>128.6610688615787</v>
+        <v>15.49354158420307</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -29773,10 +29773,10 @@
         <v>136.7759284867499</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>136.7759284867499</v>
-      </c>
-      <c r="L32" t="n">
-        <v>30.77413106708548</v>
       </c>
       <c r="M32" t="n">
         <v>136.7759284867499</v>
@@ -29788,10 +29788,10 @@
         <v>136.7759284867499</v>
       </c>
       <c r="P32" t="n">
+        <v>30.77413106708559</v>
+      </c>
+      <c r="Q32" t="n">
         <v>136.7759284867499</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>136.7759284867499</v>
@@ -29873,10 +29873,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S33" t="n">
-        <v>14.56549128550353</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -29928,10 +29928,10 @@
         <v>136.7759284867499</v>
       </c>
       <c r="J34" t="n">
-        <v>59.456666199969</v>
+        <v>115.9971141011257</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="L34" t="n">
         <v>136.7759284867499</v>
@@ -29940,13 +29940,13 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>136.7759284867499</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>56.54044790115665</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>136.7759284867499</v>
@@ -30007,31 +30007,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>116.9787331327011</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
       <c r="O35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>40.5815716293491</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30065,7 +30065,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30159,7 +30159,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H37" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
         <v>142.7610139533483</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>38.33547045601495</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>38.15196793284785</v>
+        <v>84.83758476280077</v>
       </c>
       <c r="R37" t="n">
         <v>148.0265635717656</v>
@@ -30250,14 +30250,14 @@
         <v>166.1290651424569</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>40.58157162934941</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
@@ -30265,7 +30265,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>40.5815716293491</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>166.1290651424569</v>
@@ -30302,7 +30302,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>14.5654912855033</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30390,7 +30390,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
@@ -30408,13 +30408,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>45.56176619902601</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>46.68561682995299</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30481,16 +30481,16 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J41" t="n">
-        <v>116.978733132701</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>116.9787331327012</v>
       </c>
       <c r="M41" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30502,7 +30502,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="R41" t="n">
         <v>89.73190363910518</v>
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30599,7 +30599,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>14.56549128550327</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -30627,7 +30627,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G43" t="n">
         <v>166.1290651424569</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>46.68561682995298</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>83.71373413187378</v>
       </c>
       <c r="R43" t="n">
         <v>148.0265635717656</v>
@@ -30718,22 +30718,22 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>116.9787331327009</v>
       </c>
       <c r="N44" t="n">
-        <v>116.9787331327012</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>14.56549128550375</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -30791,7 +30791,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>14.56549128550327</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30861,7 +30861,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>151.6127747272214</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
@@ -30870,7 +30870,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H46" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I46" t="n">
         <v>142.7610139533483</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>45.56176619902635</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>38.33547045601529</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -32327,13 +32327,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>-5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -32807,7 +32807,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>-5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
         <v>242.5660323684674</v>
@@ -34708,13 +34708,13 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
-        <v>330.6843276740603</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>230.4615115717709</v>
+        <v>106.2671493867184</v>
       </c>
       <c r="Q2" t="n">
         <v>95.38611483488586</v>
@@ -34787,10 +34787,10 @@
         <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>493.9377883662144</v>
+        <v>102.3640025879547</v>
       </c>
       <c r="O3" t="n">
-        <v>4.587780670377617</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
         <v>305.147393207775</v>
@@ -34948,13 +34948,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
-        <v>279.277191511282</v>
+        <v>183.8910766763958</v>
       </c>
       <c r="P5" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>493.9377883662144</v>
       </c>
       <c r="O6" t="n">
-        <v>396.1615664486372</v>
+        <v>335.1551783720261</v>
       </c>
       <c r="P6" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>98.35889453510059</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
@@ -35258,7 +35258,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>40.69581689574456</v>
+        <v>406.7059843793842</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
@@ -35267,7 +35267,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>159.3652826117113</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>164.6202597107962</v>
+        <v>164.6202597107963</v>
       </c>
       <c r="K11" t="n">
-        <v>334.4604897835004</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>351.3993667524709</v>
+        <v>443.2938241675039</v>
       </c>
       <c r="M11" t="n">
-        <v>476.7077590250791</v>
+        <v>489.1057364585562</v>
       </c>
       <c r="N11" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>308.0854388614484</v>
+        <v>389.7444726189309</v>
       </c>
       <c r="P11" t="n">
-        <v>322.3559689868039</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>187.2805722499188</v>
+        <v>187.2805722499189</v>
       </c>
       <c r="R11" t="n">
-        <v>2.162553775927776</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M12" t="n">
-        <v>489.93268031336</v>
+        <v>489.9326803133602</v>
       </c>
       <c r="N12" t="n">
         <v>516.4299455789112</v>
@@ -35507,7 +35507,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.3652826117107</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>32.43779121506396</v>
+        <v>32.43779121506399</v>
       </c>
       <c r="K13" t="n">
         <v>125.8380813995213</v>
@@ -35586,7 +35586,7 @@
         <v>155.498986433354</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.74248948218511</v>
+        <v>53.74248948218514</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>164.6202597107962</v>
       </c>
       <c r="K14" t="n">
-        <v>334.4604897835004</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
-        <v>351.3993667524709</v>
+        <v>443.2938241675039</v>
       </c>
       <c r="M14" t="n">
-        <v>489.1057364585561</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N14" t="n">
         <v>474.0473449783822</v>
       </c>
       <c r="O14" t="n">
-        <v>387.5819188430038</v>
+        <v>399.9798962764813</v>
       </c>
       <c r="P14" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488586</v>
+        <v>177.045148592369</v>
       </c>
       <c r="R14" t="n">
-        <v>2.162553775927776</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
-        <v>369.5170153233491</v>
+        <v>369.5170153233492</v>
       </c>
       <c r="M15" t="n">
         <v>489.93268031336</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.43779121506396</v>
+        <v>32.43779121506392</v>
       </c>
       <c r="K16" t="n">
-        <v>125.8380813995213</v>
+        <v>125.8380813995212</v>
       </c>
       <c r="L16" t="n">
         <v>193.5177699405476</v>
       </c>
       <c r="M16" t="n">
-        <v>211.0798171398832</v>
+        <v>211.0798171398831</v>
       </c>
       <c r="N16" t="n">
         <v>211.5129844348313</v>
       </c>
       <c r="O16" t="n">
-        <v>191.3526861985579</v>
+        <v>191.3526861985578</v>
       </c>
       <c r="P16" t="n">
-        <v>155.498986433354</v>
+        <v>155.4989864333539</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.74248948218511</v>
+        <v>53.74248948218506</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
-        <v>359.5447655011686</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M17" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P17" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>261.5151799773428</v>
+        <v>212.3648479675866</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35975,13 +35975,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O18" t="n">
-        <v>396.1615664486372</v>
+        <v>396.161566448637</v>
       </c>
       <c r="P18" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117107</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36027,7 +36027,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L19" t="n">
-        <v>101.6233125255146</v>
+        <v>147.1850787245407</v>
       </c>
       <c r="M19" t="n">
         <v>119.1853597248502</v>
@@ -36054,7 +36054,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O19" t="n">
-        <v>146.1438456134779</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P19" t="n">
         <v>63.604529018321</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>189.7045354284645</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
         <v>242.5660323684674</v>
@@ -36127,7 +36127,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N20" t="n">
         <v>548.2819527058061</v>
@@ -36136,7 +36136,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>396.5905767142278</v>
+        <v>347.4402447044723</v>
       </c>
       <c r="Q20" t="n">
         <v>95.38611483488586</v>
@@ -36200,7 +36200,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
-        <v>231.8086389496855</v>
+        <v>231.8086389496856</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36264,7 +36264,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -36273,7 +36273,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -36285,13 +36285,13 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M22" t="n">
-        <v>119.1853597248502</v>
+        <v>164.7471259238762</v>
       </c>
       <c r="N22" t="n">
         <v>119.6185270197983</v>
       </c>
       <c r="O22" t="n">
-        <v>122.7757944243692</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P22" t="n">
         <v>63.604529018321</v>
@@ -36361,16 +36361,16 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>351.3993667524709</v>
+        <v>468.3780998851719</v>
       </c>
       <c r="M23" t="n">
-        <v>437.7928506728726</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N23" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P23" t="n">
         <v>230.4615115717709</v>
@@ -36379,7 +36379,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.3652826117107</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36495,10 +36495,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -36507,10 +36507,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -36522,7 +36522,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M25" t="n">
-        <v>119.1853597248502</v>
+        <v>164.7471259238762</v>
       </c>
       <c r="N25" t="n">
         <v>119.6185270197983</v>
@@ -36537,7 +36537,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.3795283649642351</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>201.3868711573419</v>
       </c>
       <c r="K26" t="n">
-        <v>371.2271012300461</v>
+        <v>371.227101230046</v>
       </c>
       <c r="L26" t="n">
-        <v>480.0604356140496</v>
+        <v>434.5108085192298</v>
       </c>
       <c r="M26" t="n">
-        <v>525.8723479051018</v>
+        <v>525.8723479051017</v>
       </c>
       <c r="N26" t="n">
-        <v>465.2643293301067</v>
+        <v>510.8139564249278</v>
       </c>
       <c r="O26" t="n">
-        <v>436.7465077230271</v>
+        <v>436.746507723027</v>
       </c>
       <c r="P26" t="n">
-        <v>359.1225804333496</v>
+        <v>359.1225804333495</v>
       </c>
       <c r="Q26" t="n">
-        <v>224.0471836964645</v>
+        <v>224.0471836964644</v>
       </c>
       <c r="R26" t="n">
-        <v>38.92916522247347</v>
+        <v>38.92916522247339</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.20440266160966</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>33.9436239844883</v>
       </c>
       <c r="L28" t="n">
-        <v>207.625955038449</v>
+        <v>186.3212567713298</v>
       </c>
       <c r="M28" t="n">
-        <v>247.8464285864289</v>
+        <v>247.8464285864288</v>
       </c>
       <c r="N28" t="n">
-        <v>248.279595881377</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O28" t="n">
-        <v>228.1192976451036</v>
+        <v>228.1192976451035</v>
       </c>
       <c r="P28" t="n">
-        <v>63.604529018321</v>
+        <v>192.2655978798996</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>90.50910092873072</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>201.3868711573419</v>
+        <v>201.386871157342</v>
       </c>
       <c r="K29" t="n">
         <v>371.2271012300461</v>
       </c>
       <c r="L29" t="n">
-        <v>480.0604356140496</v>
+        <v>480.0604356140497</v>
       </c>
       <c r="M29" t="n">
-        <v>480.3227208102811</v>
+        <v>525.8723479051018</v>
       </c>
       <c r="N29" t="n">
         <v>510.8139564249279</v>
@@ -36850,10 +36850,10 @@
         <v>359.1225804333496</v>
       </c>
       <c r="Q29" t="n">
-        <v>224.0471836964645</v>
+        <v>178.4975566016439</v>
       </c>
       <c r="R29" t="n">
-        <v>38.92916522247347</v>
+        <v>38.9291652224735</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.20440266160966</v>
+        <v>69.20440266160969</v>
       </c>
       <c r="K31" t="n">
-        <v>162.6046928460669</v>
+        <v>162.604692846067</v>
       </c>
       <c r="L31" t="n">
-        <v>117.1168541097182</v>
+        <v>230.2843813870933</v>
       </c>
       <c r="M31" t="n">
         <v>247.8464285864289</v>
       </c>
       <c r="N31" t="n">
-        <v>248.279595881377</v>
+        <v>135.1120686040014</v>
       </c>
       <c r="O31" t="n">
         <v>99.45822878352493</v>
@@ -37008,7 +37008,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.5091009287308</v>
+        <v>90.50910092873083</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,10 +37069,10 @@
         <v>209.5017307825132</v>
       </c>
       <c r="K32" t="n">
-        <v>379.3419608552174</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L32" t="n">
-        <v>382.1734978195564</v>
+        <v>488.1752952392209</v>
       </c>
       <c r="M32" t="n">
         <v>533.9872075302731</v>
@@ -37084,10 +37084,10 @@
         <v>444.8613673481984</v>
       </c>
       <c r="P32" t="n">
-        <v>367.2374400585209</v>
+        <v>261.2356426388565</v>
       </c>
       <c r="Q32" t="n">
-        <v>95.38611483488586</v>
+        <v>232.1620433216358</v>
       </c>
       <c r="R32" t="n">
         <v>47.04402484764475</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>56.54044790115669</v>
       </c>
       <c r="K34" t="n">
-        <v>33.9436239844883</v>
+        <v>170.7195524712382</v>
       </c>
       <c r="L34" t="n">
         <v>238.3992410122646</v>
@@ -37236,13 +37236,13 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>256.3944555065483</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
         <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
-        <v>120.1449769194777</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
         <v>98.62396055390208</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K35" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
-        <v>351.3993667524709</v>
+        <v>468.378099885172</v>
       </c>
       <c r="M35" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O35" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>135.967686464235</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37455,7 +37455,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L37" t="n">
-        <v>139.9587829815296</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
         <v>119.1853597248502</v>
@@ -37482,7 +37482,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>46.68561682995292</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,13 +37546,13 @@
         <v>408.6950975109244</v>
       </c>
       <c r="L38" t="n">
-        <v>351.3993667524709</v>
+        <v>391.9809383818204</v>
       </c>
       <c r="M38" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O38" t="n">
         <v>308.0854388614484</v>
@@ -37561,7 +37561,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>135.967686464235</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
         <v>76.39716150335175</v>
@@ -37686,7 +37686,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37704,13 +37704,13 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L40" t="n">
-        <v>101.6233125255146</v>
+        <v>147.1850787245407</v>
       </c>
       <c r="M40" t="n">
         <v>119.1853597248502</v>
       </c>
       <c r="N40" t="n">
-        <v>166.3041438497513</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O40" t="n">
         <v>99.45822878352493</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>189.7045354284643</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>351.3993667524709</v>
+        <v>468.3780998851721</v>
       </c>
       <c r="M41" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
         <v>382.1528875633492</v>
@@ -37798,7 +37798,7 @@
         <v>396.5905767142278</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K42" t="n">
-        <v>231.8086389496855</v>
+        <v>231.8086389496856</v>
       </c>
       <c r="L42" t="n">
         <v>369.5170153233491</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M43" t="n">
-        <v>165.8709765548032</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N43" t="n">
         <v>119.6185270197983</v>
@@ -37956,7 +37956,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>45.56176619902593</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L44" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M44" t="n">
-        <v>397.2112790435232</v>
+        <v>514.1900121762241</v>
       </c>
       <c r="N44" t="n">
-        <v>499.1316206960504</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>474.2145040039053</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
         <v>230.4615115717709</v>
@@ -38096,7 +38096,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K45" t="n">
-        <v>231.8086389496856</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L45" t="n">
         <v>369.5170153233491</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1.123850630927025</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38166,7 +38166,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>8.350146373937974</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L46" t="n">
-        <v>101.6233125255146</v>
+        <v>147.185078724541</v>
       </c>
       <c r="M46" t="n">
         <v>119.1853597248502</v>
@@ -38187,7 +38187,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
-        <v>137.7936992395402</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P46" t="n">
         <v>63.604529018321</v>
